--- a/仕様書/ステージ選択画面の仕様.xlsx
+++ b/仕様書/ステージ選択画面の仕様.xlsx
@@ -213,13 +213,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -273,13 +273,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>219074</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>590549</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
@@ -331,13 +331,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -401,13 +401,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -471,13 +471,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>171448</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
@@ -541,13 +541,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -601,13 +601,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -661,13 +661,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
@@ -721,13 +721,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
@@ -791,13 +791,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -861,13 +861,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
@@ -931,13 +931,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>183642</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>21524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>344085</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>128365</xdr:rowOff>
@@ -2532,6 +2532,126 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>特売品</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>199159</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>320386</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>147205</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="二等辺三角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94A5B5AC-A038-43BA-8DF9-0CF0BC71DA8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6754091" y="1385455"/>
+          <a:ext cx="1645227" cy="727363"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>507423</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>542059</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>5195</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="二等辺三角形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8F25A2E-D822-4CFD-A04E-C98FC65BB286}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="48491" y="1243445"/>
+          <a:ext cx="1645227" cy="727363"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2805,8 +2925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AB43" sqref="AB43"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/仕様書/ステージ選択画面の仕様.xlsx
+++ b/仕様書/ステージ選択画面の仕様.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>ステージ選択画面の仕様</t>
     <rPh sb="4" eb="6">
@@ -76,6 +76,13 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>点滅</t>
+    <rPh sb="0" eb="2">
+      <t>テンメツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2655,6 +2662,106 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>536863</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>34636</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>207818</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C10F2EFB-2000-4EE8-8745-203F3A632195}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7464136" y="1627909"/>
+          <a:ext cx="2268682" cy="1246909"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>311728</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>138545</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直線コネクタ 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6EC1B5D-4F01-4600-8F2E-3ECFB0526EE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1004455" y="1835727"/>
+          <a:ext cx="8832272" cy="1073728"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2923,25 +3030,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="13" spans="1:15">
+      <c r="O13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>2</v>
       </c>
